--- a/src/main/resources/example_excel/lisi-20180724192548.xlsx
+++ b/src/main/resources/example_excel/lisi-20180724192548.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjiao/Downloads/µÁ»›≤‚ ‘ ˝æ›/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66E49EA-3C26-6841-BE08-3CAC2EBED9A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DA719-7737-6E47-8FD0-94DF25CBE884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1000" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -110,74 +111,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>men</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>李四</t>
   </si>
   <si>
-    <t>lisi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>男</t>
   </si>
   <si>
-    <t>li, si</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left thumb</t>
-  </si>
-  <si>
-    <t>Left index finger</t>
-  </si>
-  <si>
-    <t>Left middle finger</t>
-  </si>
-  <si>
-    <t>Left ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left little thumb</t>
-  </si>
-  <si>
-    <t>Right thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right index finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right middle finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right little thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right knee joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left elbow joint</t>
-  </si>
-  <si>
-    <t>Right middle finger</t>
+    <t>左食指</t>
   </si>
 </sst>
 </file>
@@ -572,7 +512,7 @@
   <dimension ref="A1:G878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G878" sqref="G878"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -593,19 +533,14 @@
       <c r="B1" s="3">
         <v>43305.809583333335</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -613,10 +548,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -624,10 +556,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -637,9 +566,6 @@
       <c r="B5" s="1">
         <v>34157</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -648,19 +574,13 @@
       <c r="B6">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -670,14 +590,6 @@
       <c r="B8">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -695,9 +607,6 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
@@ -716,9 +625,6 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
@@ -737,9 +643,6 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
@@ -758,9 +661,6 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
@@ -777,10 +677,7 @@
         <v>32.9435915192511</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -800,9 +697,6 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
@@ -821,11 +715,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>0.6</v>
       </c>
@@ -840,13 +731,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>0.7</v>
       </c>
@@ -864,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>0.8</v>
       </c>
@@ -882,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>0.9</v>
       </c>
@@ -897,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -918,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -933,10 +821,10 @@
         <v>8.2358978798127751</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>1.2</v>
       </c>
@@ -954,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>1.3</v>
       </c>
@@ -972,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>1.4</v>
       </c>
@@ -990,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>1.5</v>
       </c>
@@ -1005,10 +893,10 @@
         <v>111.18462137747247</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>1.6</v>
       </c>
@@ -1026,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>1.7</v>
       </c>
@@ -1044,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>1.8</v>
       </c>
@@ -1062,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>1.9</v>
       </c>
@@ -1080,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1098,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>2.1</v>
       </c>
@@ -16331,6 +16219,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{A3236996-47F2-D14F-BB16-73493A7703FB}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{8B5DF108-B109-E04C-905A-6E42E039B32C}">
+      <formula1>"左拇指,左食指,左中指,左无名指,左小指,右拇指,右食指,右中指,右无名指,右小指,左腕关节,右腕关节,左肘关节,右肘关节,左膝关节,右膝关节"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
